--- a/tables/crosstab/crosstab_safety_time/regulations VS outbreak_chisq.xlsx
+++ b/tables/crosstab/crosstab_safety_time/regulations VS outbreak_chisq.xlsx
@@ -408,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7.2751</v>
+        <v>7.2312</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.122</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.1335</v>
+        <v>0.1345</v>
       </c>
     </row>
   </sheetData>
